--- a/aplicacao/excluir-chip.xlsx
+++ b/aplicacao/excluir-chip.xlsx
@@ -19,12 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Serial_do_chip</t>
-  </si>
-  <si>
-    <t>operadora</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>teste1</t>
+  </si>
+  <si>
+    <t>teste2</t>
+  </si>
+  <si>
+    <t>teste3</t>
+  </si>
+  <si>
+    <t>teste4</t>
+  </si>
+  <si>
+    <t>teste5</t>
+  </si>
+  <si>
+    <t>teste6</t>
+  </si>
+  <si>
+    <t>teste7</t>
+  </si>
+  <si>
+    <t>teste8</t>
+  </si>
+  <si>
+    <t>teste9</t>
+  </si>
+  <si>
+    <t>teste10</t>
+  </si>
+  <si>
+    <t>serial_do_chip</t>
   </si>
 </sst>
 </file>
@@ -376,23 +403,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A11" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/aplicacao/excluir-chip.xlsx
+++ b/aplicacao/excluir-chip.xlsx
@@ -19,46 +19,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>teste1</t>
+    <t>serial_do_chip</t>
   </si>
   <si>
-    <t>teste2</t>
-  </si>
-  <si>
-    <t>teste3</t>
-  </si>
-  <si>
-    <t>teste4</t>
-  </si>
-  <si>
-    <t>teste5</t>
-  </si>
-  <si>
-    <t>teste6</t>
-  </si>
-  <si>
-    <t>teste7</t>
-  </si>
-  <si>
-    <t>teste8</t>
-  </si>
-  <si>
-    <t>teste9</t>
-  </si>
-  <si>
-    <t>teste10</t>
-  </si>
-  <si>
-    <t>serial_do_chip</t>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +49,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,12 +98,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,71 +387,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:A11"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
